--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/119.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/119.xlsx
@@ -479,13 +479,13 @@
         <v>-8.606914472607025</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.46313140100991</v>
+        <v>-21.48115228032136</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04563412479971962</v>
+        <v>-0.0353574323654644</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.85105327755989</v>
+        <v>-8.824745531609022</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.766454445783603</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.61416260114265</v>
+        <v>-21.63102478582664</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1711153750459587</v>
+        <v>-0.1590981961670817</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.353503937720824</v>
+        <v>-8.317159060672177</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.860025145118065</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.85327903799659</v>
+        <v>-21.87351952642562</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3117965476414363</v>
+        <v>-0.3009038403419498</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.244200411197205</v>
+        <v>-8.202526516663623</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.860801646119098</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.95439347801813</v>
+        <v>-21.96552085764722</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3311912378824879</v>
+        <v>-0.3191105019143411</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.785968464581869</v>
+        <v>-7.745169702277463</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.758842860765895</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.93917888864829</v>
+        <v>-21.94653684398299</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4684109936161898</v>
+        <v>-0.4593858869398648</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.064571056334233</v>
+        <v>-7.011701336075415</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.549971277840728</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19144675397423</v>
+        <v>-22.19842336677332</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5663769132154315</v>
+        <v>-0.5536166052927834</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.488650936418519</v>
+        <v>-6.430222415352019</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.231697655470441</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.57725295286309</v>
+        <v>-22.58151616685104</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7404793367531397</v>
+        <v>-0.7282665975995861</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.080912652724679</v>
+        <v>-6.023134369571479</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.798511352217847</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83459071831003</v>
+        <v>-22.83180398439588</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8569110352887191</v>
+        <v>-0.8502717639634487</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.798552950132874</v>
+        <v>-5.745668562853455</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.2558674553268</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31350316397241</v>
+        <v>-23.31054042581106</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9463260818777267</v>
+        <v>-0.9411290675781961</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.508654398952284</v>
+        <v>-5.467420515036724</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.615675658449242</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.75906769379557</v>
+        <v>-23.75929747711832</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.189304834156533</v>
+        <v>-1.182831789064737</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.170266677665634</v>
+        <v>-5.138439242962018</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.893576028861879</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23585342147085</v>
+        <v>-24.23617609592407</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.125195287110677</v>
+        <v>-1.11961204126866</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.992888619527093</v>
+        <v>-4.967206666455188</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.108163980274487</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85103715553476</v>
+        <v>-24.85199051187381</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.049293455501822</v>
+        <v>-1.048775220773929</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.890576372823164</v>
+        <v>-4.865984668282581</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.295984181460516</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.44055849255423</v>
+        <v>-25.43524903109676</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9559769814330168</v>
+        <v>-0.9500857281583843</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.764371549560621</v>
+        <v>-4.743348820032886</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.488075514100582</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08168329705399</v>
+        <v>-26.07835877238449</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9175591654727991</v>
+        <v>-0.9175249424247307</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.747949375494653</v>
+        <v>-4.720179816490576</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.712479278639981</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.84209498009961</v>
+        <v>-26.83679529665587</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8327691193798932</v>
+        <v>-0.836743881962695</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.661213504668716</v>
+        <v>-4.631116778395987</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.999968262094472</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.63579102189518</v>
+        <v>-27.63831130493508</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7293568461309082</v>
+        <v>-0.7364703511222694</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.683008697281422</v>
+        <v>-4.657004069756302</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.375348534289862</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.48375015090664</v>
+        <v>-28.47916426246548</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5783305350050385</v>
+        <v>-0.5861773910264371</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.901063292552696</v>
+        <v>-4.865031311943532</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.8523360921268182</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17231543353951</v>
+        <v>-29.17231298903608</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3014954101728465</v>
+        <v>-0.3082911297178583</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.133022223353476</v>
+        <v>-5.095347536437029</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.4348824506092132</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.59317825616758</v>
+        <v>-29.59358648824097</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.116030934676428</v>
+        <v>-0.1268894189278461</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.450646332476339</v>
+        <v>-5.40930000140284</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.1288122543896791</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.19140691441703</v>
+        <v>-30.19889198393028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3222538639218964</v>
+        <v>0.3180590960300834</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.730972208211508</v>
+        <v>-5.686394243598977</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.07243286208482026</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.72987479722874</v>
+        <v>-30.73315776533988</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3432081473534939</v>
+        <v>0.3362999806505431</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.007763331981898</v>
+        <v>-5.963253813465505</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.1808178037144876</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08268264426936</v>
+        <v>-31.09184953214482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6247709418259927</v>
+        <v>0.6158093922389375</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.305758078534098</v>
+        <v>-6.265477550957586</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.2068617378382205</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.28829471706434</v>
+        <v>-31.29940254066597</v>
       </c>
       <c r="F24" t="n">
-        <v>0.831228812808944</v>
+        <v>0.8249855510398936</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.526320734328099</v>
+        <v>-6.483908599757612</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.1618066519190919</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58414807860883</v>
+        <v>-31.59072623734826</v>
       </c>
       <c r="F25" t="n">
-        <v>1.054421754297345</v>
+        <v>1.047010019887102</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.551073776095289</v>
+        <v>-6.511238148143667</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.05704515033621586</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49124717012371</v>
+        <v>-31.49079738149195</v>
       </c>
       <c r="F26" t="n">
-        <v>1.084474479508271</v>
+        <v>1.081286847031043</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.684631665685672</v>
+        <v>-6.636401612943556</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.09720165302915321</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57771903457883</v>
+        <v>-31.57577809885267</v>
       </c>
       <c r="F27" t="n">
-        <v>1.336268111168125</v>
+        <v>1.332327571633392</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.95928629345522</v>
+        <v>-6.91860486731562</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.2931234880373935</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40279036888062</v>
+        <v>-31.40240413733813</v>
       </c>
       <c r="F28" t="n">
-        <v>1.482415193440814</v>
+        <v>1.477526186573899</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.103639110207751</v>
+        <v>-7.057560220487077</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.5258909536098556</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.2081272269641</v>
+        <v>-31.20984815738125</v>
       </c>
       <c r="F29" t="n">
-        <v>1.510947437516129</v>
+        <v>1.505877537395139</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.38166715271547</v>
+        <v>-7.334991804157033</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.791318868270203</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07535402297585</v>
+        <v>-31.06948965923899</v>
       </c>
       <c r="F30" t="n">
-        <v>1.620060292771937</v>
+        <v>1.614609050115327</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.398514670378859</v>
+        <v>-7.356948333996348</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.084228525653339</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80869781044058</v>
+        <v>-30.80214898574235</v>
       </c>
       <c r="F31" t="n">
-        <v>1.557593452033365</v>
+        <v>1.556493425488309</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.388682877569493</v>
+        <v>-7.349316594277093</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.401380647914034</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40478273011667</v>
+        <v>-30.40278557081153</v>
       </c>
       <c r="F32" t="n">
-        <v>1.510429202788236</v>
+        <v>1.509769186861203</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.402440542892991</v>
+        <v>-7.371082452848599</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.74061659253444</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90161836589095</v>
+        <v>-29.89827672969741</v>
       </c>
       <c r="F33" t="n">
-        <v>1.48089960131207</v>
+        <v>1.482297857276008</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.665038879728727</v>
+        <v>-7.632267866699796</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.097755033540242</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.30342148618614</v>
+        <v>-29.29681888241237</v>
       </c>
       <c r="F34" t="n">
-        <v>1.470173120246059</v>
+        <v>1.474323887076069</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.649423391795801</v>
+        <v>-7.616916385137683</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.464964767842046</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85361818740936</v>
+        <v>-28.84901763194759</v>
       </c>
       <c r="F35" t="n">
-        <v>1.497752007982326</v>
+        <v>1.500352959635525</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.665400666236879</v>
+        <v>-7.633646566636267</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-2.841302274238026</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22938734613822</v>
+        <v>-28.22524391281852</v>
       </c>
       <c r="F36" t="n">
-        <v>1.406430248715221</v>
+        <v>1.407090264642255</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.53814470649795</v>
+        <v>-7.521380301951298</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.224554558391296</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56788271651373</v>
+        <v>-27.56270281373824</v>
       </c>
       <c r="F37" t="n">
-        <v>1.510478092856905</v>
+        <v>1.516628463495484</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.463523794688227</v>
+        <v>-7.448749215936409</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.607924667745862</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.02578474610334</v>
+        <v>-27.02876704029216</v>
       </c>
       <c r="F38" t="n">
-        <v>1.375282385966106</v>
+        <v>1.382337222875065</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.435099108763984</v>
+        <v>-7.42092098884993</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.987877678033708</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.27314658397611</v>
+        <v>-26.28276326048334</v>
       </c>
       <c r="F39" t="n">
-        <v>1.429721477429204</v>
+        <v>1.434082471554492</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.397219083559126</v>
+        <v>-7.391552724600372</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.361489644560984</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61145372758724</v>
+        <v>-25.61838633932453</v>
       </c>
       <c r="F40" t="n">
-        <v>1.451081548430756</v>
+        <v>1.461900920627238</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.100109247249838</v>
+        <v>-7.098696324265299</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.72229134014805</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.05790570309453</v>
+        <v>-25.07048022875624</v>
       </c>
       <c r="F41" t="n">
-        <v>1.483065431354113</v>
+        <v>1.490892731348044</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.118814587522655</v>
+        <v>-7.123591147231631</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.060959438582649</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35055441157554</v>
+        <v>-24.36052798558405</v>
       </c>
       <c r="F42" t="n">
-        <v>1.492985226287084</v>
+        <v>1.500763636212345</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.853258401532435</v>
+        <v>-6.85393308448007</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.37620746657353</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.64659120181533</v>
+        <v>-23.65580209075259</v>
       </c>
       <c r="F43" t="n">
-        <v>1.44552763662994</v>
+        <v>1.452782922820442</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.839461624154001</v>
+        <v>-6.846980916715316</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.665267536962262</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96261914113393</v>
+        <v>-22.96957619790555</v>
       </c>
       <c r="F44" t="n">
-        <v>1.557798790321775</v>
+        <v>1.565899874700253</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.751640393803608</v>
+        <v>-6.753322212165827</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.923630576353473</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14224867787247</v>
+        <v>-22.15440763795048</v>
       </c>
       <c r="F45" t="n">
-        <v>1.609397368795195</v>
+        <v>1.616784658171104</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.628588979970226</v>
+        <v>-6.638259435552984</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.153528287939974</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.62958741780776</v>
+        <v>-21.64496823341108</v>
       </c>
       <c r="F46" t="n">
-        <v>1.60652263275745</v>
+        <v>1.618442031498988</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.50238904571455</v>
+        <v>-6.507835399364294</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.359447359820394</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.9608886145786</v>
+        <v>-20.97918816728147</v>
       </c>
       <c r="F47" t="n">
-        <v>1.680131520145721</v>
+        <v>1.690887335252934</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.477518667782554</v>
+        <v>-6.479650274776529</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.544005630020657</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.32201764224449</v>
+        <v>-20.33996029744607</v>
       </c>
       <c r="F48" t="n">
-        <v>1.717654647849293</v>
+        <v>1.728415351963373</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.457488406648803</v>
+        <v>-6.452154500157</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.710339970113468</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.57296801115759</v>
+        <v>-19.59657702531792</v>
       </c>
       <c r="F49" t="n">
-        <v>1.87066589576313</v>
+        <v>1.878991874457486</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.211747365490191</v>
+        <v>-6.198077702290297</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.86812181579175</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.1853333237005</v>
+        <v>-19.20943123854753</v>
       </c>
       <c r="F50" t="n">
-        <v>1.887542747467721</v>
+        <v>1.896763414418722</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.205753443071353</v>
+        <v>-6.188446358762474</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.022383225849188</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.59836404826556</v>
+        <v>-18.62160149790401</v>
       </c>
       <c r="F51" t="n">
-        <v>1.848621363800211</v>
+        <v>1.859592295209568</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.246107305750868</v>
+        <v>-6.228091315446287</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.174921083734355</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.08046177283953</v>
+        <v>-18.09825286882823</v>
       </c>
       <c r="F52" t="n">
-        <v>1.863415498579496</v>
+        <v>1.878869649285814</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.271554586493161</v>
+        <v>-6.252291899437516</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.331678496389245</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.68422243329667</v>
+        <v>-17.70539183303041</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9586826863882</v>
+        <v>1.974884855145156</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.178844349275852</v>
+        <v>-6.154541096140418</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.496016260187473</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.06225275770149</v>
+        <v>-17.08520175593478</v>
       </c>
       <c r="F54" t="n">
-        <v>2.017189431564571</v>
+        <v>2.033059147854577</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.165311578268232</v>
+        <v>-6.140670983658981</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.666349357532794</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.81566102934803</v>
+        <v>-16.83511438767149</v>
       </c>
       <c r="F55" t="n">
-        <v>1.97784270429964</v>
+        <v>1.987395823717592</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.401240382644947</v>
+        <v>-6.374341066863181</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.84086989250231</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.26502196394113</v>
+        <v>-16.28982389577699</v>
       </c>
       <c r="F56" t="n">
-        <v>2.003720217646221</v>
+        <v>2.016837423070153</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.274458656572109</v>
+        <v>-6.24350635409767</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.021933751451487</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.16756939006292</v>
+        <v>-16.19169663895114</v>
       </c>
       <c r="F57" t="n">
-        <v>2.046660364958335</v>
+        <v>2.059753125347933</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.43424606800349</v>
+        <v>-6.399485229179724</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.205773989741624</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.91492996021509</v>
+        <v>-15.93446154264841</v>
       </c>
       <c r="F58" t="n">
-        <v>1.914574066434894</v>
+        <v>1.928400177854529</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.593349018473503</v>
+        <v>-6.56362385672266</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.387447475163562</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.64510078222318</v>
+        <v>-15.66200207896211</v>
       </c>
       <c r="F59" t="n">
-        <v>1.978668946460149</v>
+        <v>1.992123493357898</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.380750554865706</v>
+        <v>-6.357146429712241</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.56748228246021</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.39129287973416</v>
+        <v>-15.40347139583965</v>
       </c>
       <c r="F60" t="n">
-        <v>2.051466258708512</v>
+        <v>2.062500747207139</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.42519651629283</v>
+        <v>-6.394830894642421</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.743921558763899</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.23947943850272</v>
+        <v>-15.25410734704853</v>
       </c>
       <c r="F61" t="n">
-        <v>1.987146484367379</v>
+        <v>1.997594292041976</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.269056303984168</v>
+        <v>-6.24049472586765</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.911897935551089</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.18463455946967</v>
+        <v>-15.19865134215711</v>
       </c>
       <c r="F62" t="n">
-        <v>2.002620191101165</v>
+        <v>2.018822359858121</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.3563397435792</v>
+        <v>-6.326287018368274</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.068849227115503</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.09648576565919</v>
+        <v>-15.10367749476042</v>
       </c>
       <c r="F63" t="n">
-        <v>1.971843892873935</v>
+        <v>1.98440375151504</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.415061605057716</v>
+        <v>-6.388934752360922</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.216343775825861</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.1433126734305</v>
+        <v>-15.15484584062955</v>
       </c>
       <c r="F64" t="n">
-        <v>1.820010895615024</v>
+        <v>1.834130347446675</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.403880446353081</v>
+        <v>-6.37581754693699</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.349708642241168</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.15508051295916</v>
+        <v>-15.1590797205763</v>
       </c>
       <c r="F65" t="n">
-        <v>1.820338459075108</v>
+        <v>1.837674877425188</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.50245260280382</v>
+        <v>-6.472331431496757</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.464693123009564</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.15436182894973</v>
+        <v>-15.15851259577974</v>
       </c>
       <c r="F66" t="n">
-        <v>1.881690606248024</v>
+        <v>1.892661537657381</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.432192685119386</v>
+        <v>-6.393887316317107</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.562597593828903</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.01571448321089</v>
+        <v>-15.01975769188983</v>
       </c>
       <c r="F67" t="n">
-        <v>1.695546558797104</v>
+        <v>1.704322326123216</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.218934205584556</v>
+        <v>-6.187219218038878</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.640898920614777</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.12573180473708</v>
+        <v>-15.12788296775852</v>
       </c>
       <c r="F68" t="n">
-        <v>1.663181333338127</v>
+        <v>1.672250441076254</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.344943468572422</v>
+        <v>-6.310153295707455</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.694782624486761</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.03252777782621</v>
+        <v>-15.03189220693351</v>
       </c>
       <c r="F69" t="n">
-        <v>1.648568091812918</v>
+        <v>1.661137728467756</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.13788424974484</v>
+        <v>-6.089571083885986</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.72263812739058</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.06578769154183</v>
+        <v>-15.06433565650236</v>
       </c>
       <c r="F70" t="n">
-        <v>1.535470695960575</v>
+        <v>1.541982853107305</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.10900977518884</v>
+        <v>-6.064197138246698</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.725254194651656</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.07744308391256</v>
+        <v>-15.07694440521213</v>
       </c>
       <c r="F71" t="n">
-        <v>1.433505568744196</v>
+        <v>1.442819126825669</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.094577426917707</v>
+        <v>-6.039668990795385</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.69757242237546</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.19080937514258</v>
+        <v>-15.18854087595633</v>
       </c>
       <c r="F72" t="n">
-        <v>1.354499217774851</v>
+        <v>1.361510053622007</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.950801512975472</v>
+        <v>-5.895335730070322</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.638512080986688</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.3034374263357</v>
+        <v>-15.30740729991163</v>
       </c>
       <c r="F73" t="n">
-        <v>1.280323205590017</v>
+        <v>1.284473972420028</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.094992992501394</v>
+        <v>-6.045110455438262</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.5514384129505</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.44127319693463</v>
+        <v>-15.44723778531227</v>
       </c>
       <c r="F74" t="n">
-        <v>1.160630539474206</v>
+        <v>1.168022717856981</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.997481750540776</v>
+        <v>-5.947115201797819</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.435705210147727</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.67730955946242</v>
+        <v>-15.6776371229225</v>
       </c>
       <c r="F75" t="n">
-        <v>1.085985182630148</v>
+        <v>1.088229236782062</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.02953407956027</v>
+        <v>-5.978766632254225</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.290952517482536</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.69522776962966</v>
+        <v>-15.69697314508115</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9014642854590441</v>
+        <v>0.90446613567533</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.137219344810939</v>
+        <v>-6.085102531609626</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.12174286704351</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.7694771169175</v>
+        <v>-15.77145227569173</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7431191310534028</v>
+        <v>0.7459792000705481</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.054057338004716</v>
+        <v>-6.000459155722727</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.933350907343199</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.92599378275492</v>
+        <v>-15.92672224477809</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7579034878189536</v>
+        <v>0.7607880018704334</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.02826782678174</v>
+        <v>-5.976551912143513</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.725492147228655</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.03687156948968</v>
+        <v>-16.03546353551201</v>
       </c>
       <c r="F79" t="n">
-        <v>0.480755466547279</v>
+        <v>0.4817577129549966</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.041781041761892</v>
+        <v>-5.993692770218917</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.503621592902759</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.53467024867896</v>
+        <v>-16.53497336710471</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4699018713027278</v>
+        <v>0.4693005234580973</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.976947921699733</v>
+        <v>-5.928898762211693</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.275459169543089</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.04214427245786</v>
+        <v>-17.04588925171792</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2940002932379949</v>
+        <v>0.2955941094766092</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.05335332101588</v>
+        <v>-6.001529848226582</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.044506812214841</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.46834344608117</v>
+        <v>-17.4713697413318</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.01903303843683538</v>
+        <v>-0.01736099808835047</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.092225814614721</v>
+        <v>-6.036975148011715</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.815330702170485</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.97872642894589</v>
+        <v>-17.98047180439738</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02563808671403748</v>
+        <v>-0.0236189268780016</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.116015722029129</v>
+        <v>-6.062031308204654</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.596143013628065</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.75658697749953</v>
+        <v>-18.76433116437672</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1156104800858733</v>
+        <v>-0.1132295337416857</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.108555097550217</v>
+        <v>-6.056560509520576</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.394274218919175</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44501781244356</v>
+        <v>-19.44669963080577</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.280198896260565</v>
+        <v>-0.2803651224940401</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.195515862692033</v>
+        <v>-6.145819107889842</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.211050790782693</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.11848828637482</v>
+        <v>-20.12364129961255</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4140061252011602</v>
+        <v>-0.4080122027823225</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.431679339398359</v>
+        <v>-6.378266939377314</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.052292580575296</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.86898017448747</v>
+        <v>-20.86982108366858</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5084812938974247</v>
+        <v>-0.5038709604219239</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.760631277431865</v>
+        <v>-6.711477202391902</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.925911654840821</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70096202905786</v>
+        <v>-21.7004389053231</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6236809627025416</v>
+        <v>-0.620669334472522</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.010796869805036</v>
+        <v>-6.961813910005415</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.834188829440033</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70001591529132</v>
+        <v>-22.69745407569306</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8504526572175245</v>
+        <v>-0.8488099509102411</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.067924915044937</v>
+        <v>-7.010293302097743</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.779008227202689</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.78811817259878</v>
+        <v>-23.78277937710011</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.113945682309906</v>
+        <v>-1.115192379060969</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.449868798508933</v>
+        <v>-7.39729241866213</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.763698830386153</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.0231106412227</v>
+        <v>-25.01568912879872</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.068414361358327</v>
+        <v>-1.076026545050113</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.808443229149076</v>
+        <v>-7.755661511013863</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.790463068286181</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.28046542725589</v>
+        <v>-26.26596952189548</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.295318059058716</v>
+        <v>-1.302201780727333</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.117951586872861</v>
+        <v>-8.072288262735876</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.854526681163637</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.56719092204206</v>
+        <v>-27.55236745322158</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.559568880215469</v>
+        <v>-1.56581214198452</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.441286056016281</v>
+        <v>-8.399040147679269</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.951857056370004</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.06530240673304</v>
+        <v>-29.04576593529285</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.82724689518593</v>
+        <v>-1.840579216912007</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.771499357821451</v>
+        <v>-8.731825067096436</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.081182778726218</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.67788265370254</v>
+        <v>-30.65387274097912</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.093272425835373</v>
+        <v>-2.109719044935675</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.083789560452511</v>
+        <v>-9.047977585152358</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.23366308009693</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51395896058618</v>
+        <v>-32.48463225289499</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.127891483459997</v>
+        <v>-2.149955571450385</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.446856988403347</v>
+        <v>-9.411690362009628</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.398411592590267</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.2353171658411</v>
+        <v>-34.19843938704395</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.483434729842653</v>
+        <v>-2.509077570859622</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.842602538252645</v>
+        <v>-9.818103724842535</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.565376819384502</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.22439738712828</v>
+        <v>-36.18518999655905</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.872482340284277</v>
+        <v>-2.898037179177642</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.30932668979581</v>
+        <v>-10.28268649137799</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.724381955116204</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.27647246189565</v>
+        <v>-38.24433457525599</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.139632342513111</v>
+        <v>-3.164796060857122</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.66871758458273</v>
+        <v>-10.64564147217089</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.860088405194891</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.4827957033142</v>
+        <v>-40.45029358566295</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.503095780020169</v>
+        <v>-3.529848425595927</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.82782542405961</v>
+        <v>-10.79920517786069</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.958684116605608</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39080641273419</v>
+        <v>-42.35802317718809</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.948630975802128</v>
+        <v>-3.978590809882583</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.11013134757588</v>
+        <v>-11.08172132867224</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.01337155854104</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.62008109688947</v>
+        <v>-44.58114749070479</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.175872014976335</v>
+        <v>-4.204790490594137</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.24216875603065</v>
+        <v>-11.22005088896473</v>
       </c>
     </row>
   </sheetData>
